--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Тестовый Рамен</t>
   </si>
   <si>
-    <t xml:space="preserve">Рамен, который потестирован ничегоне работает</t>
+    <t xml:space="preserve">Рамен, который потестирован и что-то работает</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольное меню</t>
@@ -280,7 +280,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -435,7 +435,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -479,7 +479,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
@@ -495,7 +495,7 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>26</v>
@@ -511,7 +511,7 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
@@ -541,7 +541,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
@@ -557,7 +557,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>34</v>
@@ -573,7 +573,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>36</v>

--- a/app/admin/Menu.xlsx
+++ b/app/admin/Menu.xlsx
@@ -76,10 +76,10 @@
     <t xml:space="preserve">Рамен на насыщенном сырном бульоне на основе кокосового молока, с добавлением куриной грудинки, яично - пшеничной лапши, мисо-матадоре, ростков зелени, листьев вакамэ</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестовый Рамен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рамен, который потестирован и что-то работает</t>
+    <t xml:space="preserve">Тестовый Рамен 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рамен, который потестирован и что-то работает, незаметно подменил</t>
   </si>
   <si>
     <t xml:space="preserve">Алкогольное меню</t>
@@ -280,7 +280,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -288,7 +288,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="54.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="47.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11"/>
   </cols>
